--- a/src/results/methods-results.xlsx
+++ b/src/results/methods-results.xlsx
@@ -478,26 +478,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meilleure: 131658.00
-Moyenne: 73249.87
-Écart type: 34600.13</t>
+          <t>Meilleure: -11880.00
+Moyenne: -74907.60
+Écart type: 434467.90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Meilleure: 119188.00
-Moyenne: 80862.40
-Écart type: 25176.29</t>
+          <t>Meilleure: -28217.00
+Moyenne: -94244.23
+Écart type: 532855.74</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Meilleure: 91999999999999991611392.00
-Moyenne: 91999999999999991611392.00
-Écart type: 503904752904752836116480.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Meilleure: -140543.00
+Moyenne: -141198.43
+Écart type: 773376.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Meilleure: -140543.00
+Moyenne: -141123.67
+Écart type: 772967.48</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -509,26 +515,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meilleure: 122863.00
-Moyenne: 75930.53
-Écart type: 32794.55</t>
+          <t>Meilleure: 0.00
+Moyenne: -66794.90
+Écart type: 400433.56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Meilleure: 121273.00
-Moyenne: 82539.33
-Écart type: 20243.26</t>
+          <t>Meilleure: -30800.00
+Moyenne: -82275.83
+Écart type: 468859.91</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Meilleure: 112000000000000000000000.00
-Moyenne: 112000000000000000000000.00
-Écart type: 613449264405785956319232.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Meilleure: -130723.00
+Moyenne: -130851.00
+Écart type: 716700.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Meilleure: -129173.00
+Moyenne: -130765.00
+Écart type: 716231.79</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -540,26 +552,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Meilleure: 95007.00
-Moyenne: 62485.67
-Écart type: 18898.55</t>
+          <t>Meilleure: -23673.00
+Moyenne: -66966.10
+Écart type: 378083.32</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Meilleure: 78870.00
-Moyenne: 63174.67
-Écart type: 10951.66</t>
+          <t>Meilleure: -22507.00
+Moyenne: -59256.60
+Écart type: 334909.22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Meilleure: 151999999999999983222784.00
-Moyenne: 151999999999999983222784.00
-Écart type: 832538287407852465160192.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Meilleure: -92177.00
+Moyenne: -94519.03
+Écart type: 517729.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Meilleure: -93278.00
+Moyenne: -94666.67
+Écart type: 518533.85</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -571,26 +589,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meilleure: 97743.00
-Moyenne: 67788.53
-Écart type: 19662.70</t>
+          <t>Meilleure: 0.00
+Moyenne: -65943.77
+Écart type: 387967.84</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Meilleure: 114312.00
-Moyenne: 67657.57
-Écart type: 21883.70</t>
+          <t>Meilleure: -23118.00
+Moyenne: -69126.57
+Écart type: 396240.17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Meilleure: 121999999999999995805696.00
-Moyenne: 121999999999999995805696.00
-Écart type: 668221520156302617083904.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Meilleure: -115831.00
+Moyenne: -118420.13
+Écart type: 648666.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Meilleure: -115831.00
+Moyenne: -118978.10
+Écart type: 651695.27</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -602,26 +626,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Meilleure: 98495.00
-Moyenne: 70753.43
-Écart type: 16331.01</t>
+          <t>Meilleure: -19303.00
+Moyenne: -64107.27
+Écart type: 369615.41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Meilleure: 85355.00
-Moyenne: 64554.70
-Écart type: 13729.95</t>
+          <t>Meilleure: -29330.00
+Moyenne: -65259.17
+Écart type: 367127.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Meilleure: 121999999999999995805696.00
-Moyenne: 121999999999999995805696.00
-Écart type: 668221520156302617083904.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Meilleure: -94348.00
+Moyenne: -96601.43
+Écart type: 529212.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Meilleure: -94348.00
+Moyenne: -97042.87
+Écart type: 531640.22</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -633,26 +663,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meilleure: 117420.00
-Moyenne: 81707.77
-Écart type: 21298.69</t>
+          <t>Meilleure: 0.00
+Moyenne: -77035.37
+Écart type: 442906.82</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Meilleure: 119005.00
-Moyenne: 80372.50
-Écart type: 23358.62</t>
+          <t>Meilleure: -31382.00
+Moyenne: -84748.90
+Écart type: 480114.03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Meilleure: 106099999999999994757120.00
-Moyenne: 106099999999999994757120.00
-Écart type: 581133633512981248606208.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Meilleure: -129283.00
+Moyenne: -130364.67
+Écart type: 714039.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Meilleure: -129283.00
+Moyenne: -130351.67
+Écart type: 713967.94</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -664,26 +700,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Meilleure: 570794.00
-Moyenne: 398394.57
-Écart type: 123749.19</t>
+          <t>Meilleure: -194099.00
+Moyenne: -440893.63
+Écart type: 2474309.43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Meilleure: 691308.00
-Moyenne: 545723.17
-Écart type: 132220.19</t>
+          <t>Meilleure: -171397.00
+Moyenne: -553189.10
+Écart type: 3123034.26</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meilleure: 132800000000000000000000.00
-Moyenne: 22326666666666664919040.00
-Écart type: 280311219896742643236864.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Meilleure: -1092846.00
+Moyenne: -1095011.00
+Écart type: 5997622.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Meilleure: -1094507.00
+Moyenne: -1095127.97
+Écart type: 5998263.05</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -695,26 +737,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meilleure: 472838.00
-Moyenne: 326893.83
-Écart type: 70153.13</t>
+          <t>Meilleure: -112222.00
+Moyenne: -316594.93
+Écart type: 1793252.45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Meilleure: 351515.00
-Moyenne: 133055.77
-Écart type: 125355.77</t>
+          <t>Meilleure: 0.00
+Moyenne: -145738.80
+Écart type: 1115441.23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Meilleure: 634299999999999975882752.00
-Moyenne: 633636666666666661249024.00
-Écart type: 3470571329046559124881408.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Meilleure: -589853.00
+Moyenne: -617695.70
+Écart type: 3383486.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Meilleure: -617615.00
+Moyenne: -619634.60
+Écart type: 3393880.50</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -726,26 +774,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meilleure: 6044.00
-Moyenne: 4211.60
-Écart type: 944.03</t>
+          <t>Meilleure: -1698.00
+Moyenne: -3973.50
+Écart type: 22767.60</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Meilleure: 6023.00
-Moyenne: 2633.90
-Écart type: 1935.31</t>
+          <t>Meilleure: 0.00
+Moyenne: -2667.90
+Écart type: 17131.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Meilleure: 30701100000000000584056832.00
-Moyenne: 30701100000000000584056832.00
-Écart type: 168156850102218541850689536.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Meilleure: -7739.00
+Moyenne: -7758.23
+Écart type: 42493.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Meilleure: -7741.00
+Moyenne: -7760.37
+Écart type: 42505.32</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -757,26 +811,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meilleure: 6513.00
-Moyenne: 4425.83
-Écart type: 1258.11</t>
+          <t>Meilleure: -837.00
+Moyenne: -3956.03
+Écart type: 23400.04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Meilleure: 7536.00
-Moyenne: 5473.03
-Écart type: 1278.76</t>
+          <t>Meilleure: -2097.00
+Moyenne: -5052.63
+Écart type: 28437.32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Meilleure: 18428799999999999496683520.00
-Moyenne: 18428799999999999496683520.00
-Écart type: 100938694677512053982232576.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Meilleure: -8685.00
+Moyenne: -8709.43
+Écart type: 47703.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Meilleure: -8687.00
+Moyenne: -8711.43
+Écart type: 47714.52</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>

--- a/src/results/methods-results.xlsx
+++ b/src/results/methods-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\awedi\OneDrive\Desktop\FSS\I2Semestre1\meta-heuristique\tp-meta-heuristique\src\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8DBB42-678D-4555-AC31-6D51F9AC397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0903F5-A224-41D1-A7B9-8421D9430BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Méthode</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>GA2</t>
-  </si>
-  <si>
-    <t>Meth ?</t>
-  </si>
-  <si>
-    <t>Meth ?.1</t>
   </si>
   <si>
     <t>MKP1</t>
@@ -66,6 +60,11 @@
 Écart type: 772967.48</t>
   </si>
   <si>
+    <t>Meilleure: -138998.00
+Moyenne: -141055.67
+Écart type: 772597.98</t>
+  </si>
+  <si>
     <t>MKP2</t>
   </si>
   <si>
@@ -89,6 +88,11 @@
 Écart type: 716231.79</t>
   </si>
   <si>
+    <t>Meilleure: -129173.00
+Moyenne: -130589.97
+Écart type: 715278.07</t>
+  </si>
+  <si>
     <t>MKP3</t>
   </si>
   <si>
@@ -112,6 +116,11 @@
 Écart type: 518533.85</t>
   </si>
   <si>
+    <t>Meilleure: -92958.00
+Moyenne: -94503.43
+Écart type: 517637.27</t>
+  </si>
+  <si>
     <t>MKP4</t>
   </si>
   <si>
@@ -135,6 +144,11 @@
 Écart type: 651695.27</t>
   </si>
   <si>
+    <t>Meilleure: -115831.00
+Moyenne: -118690.87
+Écart type: 650130.01</t>
+  </si>
+  <si>
     <t>MKP5</t>
   </si>
   <si>
@@ -158,6 +172,11 @@
 Écart type: 531640.22</t>
   </si>
   <si>
+    <t>Meilleure: -94348.00
+Moyenne: -96984.57
+Écart type: 531311.07</t>
+  </si>
+  <si>
     <t>MKP6</t>
   </si>
   <si>
@@ -181,6 +200,11 @@
 Écart type: 713967.94</t>
   </si>
   <si>
+    <t>Meilleure: -128273.00
+Moyenne: -130188.50
+Écart type: 713077.00</t>
+  </si>
+  <si>
     <t>MKP7</t>
   </si>
   <si>
@@ -204,6 +228,11 @@
 Écart type: 5998263.05</t>
   </si>
   <si>
+    <t>Meilleure: -1082340.00
+Moyenne: -1091400.87
+Écart type: 5977872.75</t>
+  </si>
+  <si>
     <t>MKP8</t>
   </si>
   <si>
@@ -227,6 +256,11 @@
 Écart type: 3393880.50</t>
   </si>
   <si>
+    <t>Meilleure: -536389.00
+Moyenne: -563492.13
+Écart type: 3087280.79</t>
+  </si>
+  <si>
     <t>MKP9</t>
   </si>
   <si>
@@ -250,6 +284,11 @@
 Écart type: 42505.32</t>
   </si>
   <si>
+    <t>Meilleure: -8782488147419108352.00
+Moyenne: -9095817368875833344.00
+Écart type: 49823197052037840896.00</t>
+  </si>
+  <si>
     <t>MKP10</t>
   </si>
   <si>
@@ -271,6 +310,14 @@
     <t>Meilleure: -8687.00
 Moyenne: -8711.43
 Écart type: 47714.52</t>
+  </si>
+  <si>
+    <t>Meilleure: -8609744073709557760.00
+Moyenne: -9106917690908452864.00
+Écart type: 49884316559818055680.00</t>
+  </si>
+  <si>
+    <t>HYBRID-BSO-GA1</t>
   </si>
 </sst>
 </file>
@@ -326,13 +373,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,20 +680,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="F2:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,47 +708,50 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -722,124 +767,148 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/results/methods-results.xlsx
+++ b/src/results/methods-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>HYBRID-BSO-GA1</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MA1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +511,13 @@
 Écart type: 772597.98</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Meilleure: 141278.00
+Moyenne: 141090.60
+Écart type: 772786.47</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -548,6 +560,13 @@
 Écart type: 715278.07</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Meilleure: 130883.00
+Moyenne: 130708.67
+Écart type: 715924.89</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,6 +609,13 @@
 Écart type: 517637.27</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Meilleure: 95677.00
+Moyenne: 94804.03
+Écart type: 519279.34</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -632,6 +658,13 @@
 Écart type: 650130.01</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Meilleure: 119337.00
+Moyenne: 118736.07
+Écart type: 650383.24</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +707,13 @@
 Écart type: 531311.07</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Meilleure: 98796.00
+Moyenne: 96804.83
+Écart type: 530331.44</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +756,13 @@
 Écart type: 713077.00</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Meilleure: 130623.00
+Moyenne: 130314.67
+Écart type: 713764.56</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +805,13 @@
 Écart type: 5977872.75</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Meilleure: 1095445.00
+Moyenne: 1094958.43
+Écart type: 5997335.45</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +854,13 @@
 Écart type: 3087280.79</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Meilleure: 623459.00
+Moyenne: 619645.33
+Écart type: 3393946.02</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +903,13 @@
 Écart type: 49823197052037840896.00</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Meilleure: 9223232221128660992.00
+Moyenne: 9223043751676938240.00
+Écart type: 50516691145816989696.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -882,6 +950,13 @@
           <t>Meilleure: -8609744073709557760.00
 Moyenne: -9106917690908452864.00
 Écart type: 49884316559818055680.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Meilleure: 8722.00
+Moyenne: 8709.43
+Écart type: 47703.57</t>
         </is>
       </c>
     </row>

--- a/src/results/methods-results.xlsx
+++ b/src/results/methods-results.xlsx
@@ -808,8 +808,8 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>Meilleure: 1095445.00
-Moyenne: 1094958.43
-Écart type: 5997335.45</t>
+Moyenne: 1094931.07
+Écart type: 5997185.54</t>
         </is>
       </c>
     </row>
@@ -856,9 +856,9 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Meilleure: 623459.00
-Moyenne: 619645.33
-Écart type: 3393946.02</t>
+          <t>Meilleure: 624319.00
+Moyenne: 620104.20
+Écart type: 3396464.64</t>
         </is>
       </c>
     </row>
@@ -905,9 +905,9 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Meilleure: 9223232221128660992.00
-Moyenne: 9223043751676938240.00
-Écart type: 50516691145816989696.00</t>
+          <t>Meilleure: 7772.00
+Moyenne: 7760.37
+Écart type: 42505.32</t>
         </is>
       </c>
     </row>
